--- a/2-Data Analysis/10-APIs/teoria/OMDB/test.xlsx
+++ b/2-Data Analysis/10-APIs/teoria/OMDB/test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,6 +519,87 @@
         <v>8.300000000000001</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shrek</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>90</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>84</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Toy Story</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1995</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>95</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The Notebook</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>53</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
